--- a/resources/import/sold_policies_outstanding_report.xlsx
+++ b/resources/import/sold_policies_outstanding_report.xlsx
@@ -11,11 +11,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Company</t>
   </si>
   <si>
+    <t>Prem.</t>
+  </si>
+  <si>
     <t>Policy</t>
   </si>
   <si>
@@ -28,6 +31,9 @@
     <t>Number</t>
   </si>
   <si>
+    <t>Comm.</t>
+  </si>
+  <si>
     <t>Invoice</t>
   </si>
   <si>
@@ -35,21 +41,23 @@
   </si>
   <si>
     <t>Client</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Inter"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -61,12 +69,18 @@
       <name val="Inter"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -102,10 +116,10 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -324,12 +338,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="8" width="17.5"/>
-    <col customWidth="1" min="9" max="9" width="27.13"/>
-    <col customWidth="1" min="10" max="10" width="17.5"/>
-    <col customWidth="1" min="11" max="11" width="20.5"/>
-    <col customWidth="1" min="12" max="12" width="21.75"/>
-    <col customWidth="1" min="13" max="13" width="28.88"/>
+    <col customWidth="1" min="1" max="11" width="17.5"/>
+    <col customWidth="1" min="12" max="12" width="20.5"/>
+    <col customWidth="1" min="13" max="13" width="21.75"/>
+    <col customWidth="1" min="14" max="14" width="28.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -360,13 +372,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="3"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/resources/import/sold_policies_outstanding_report.xlsx
+++ b/resources/import/sold_policies_outstanding_report.xlsx
@@ -11,15 +11,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Company</t>
   </si>
   <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
     <t>Prem.</t>
   </si>
   <si>
-    <t>Policy</t>
+    <t>Number</t>
   </si>
   <si>
     <t>Start</t>
@@ -28,7 +34,7 @@
     <t>End</t>
   </si>
   <si>
-    <t>Number</t>
+    <t>Payment</t>
   </si>
   <si>
     <t>Comm.</t>
@@ -38,9 +44,6 @@
   </si>
   <si>
     <t>Invoice Payment</t>
-  </si>
-  <si>
-    <t>Client</t>
   </si>
 </sst>
 </file>
@@ -338,10 +341,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="11" width="17.5"/>
-    <col customWidth="1" min="12" max="12" width="20.5"/>
-    <col customWidth="1" min="13" max="13" width="21.75"/>
-    <col customWidth="1" min="14" max="14" width="28.88"/>
+    <col customWidth="1" min="1" max="12" width="17.5"/>
+    <col customWidth="1" min="13" max="13" width="20.5"/>
+    <col customWidth="1" min="14" max="14" width="21.75"/>
+    <col customWidth="1" min="15" max="15" width="28.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -375,13 +378,16 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/resources/import/sold_policies_outstanding_report.xlsx
+++ b/resources/import/sold_policies_outstanding_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Company</t>
   </si>
@@ -22,7 +22,10 @@
     <t>Client</t>
   </si>
   <si>
-    <t>Prem.</t>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Net</t>
   </si>
   <si>
     <t>Number</t>
@@ -37,10 +40,16 @@
     <t>Payment</t>
   </si>
   <si>
-    <t>Comm.</t>
+    <t>Commission Calculated</t>
+  </si>
+  <si>
+    <t>Paid</t>
   </si>
   <si>
     <t>Invoice</t>
+  </si>
+  <si>
+    <t>Serial</t>
   </si>
   <si>
     <t>Invoice Payment</t>
@@ -341,10 +350,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="12" width="17.5"/>
-    <col customWidth="1" min="13" max="13" width="20.5"/>
-    <col customWidth="1" min="14" max="14" width="21.75"/>
-    <col customWidth="1" min="15" max="15" width="28.88"/>
+    <col customWidth="1" min="1" max="9" width="17.5"/>
+    <col customWidth="1" min="10" max="10" width="29.5"/>
+    <col customWidth="1" min="11" max="15" width="17.5"/>
+    <col customWidth="1" min="16" max="16" width="20.5"/>
+    <col customWidth="1" min="17" max="17" width="21.75"/>
+    <col customWidth="1" min="18" max="18" width="28.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -381,13 +392,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="3"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/resources/import/sold_policies_outstanding_report.xlsx
+++ b/resources/import/sold_policies_outstanding_report.xlsx
@@ -11,48 +11,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Policy</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Gross</t>
-  </si>
-  <si>
-    <t>Net</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>Commission Calculated</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
-    <t>Serial</t>
-  </si>
-  <si>
-    <t>Invoice Payment</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+  <si>
+    <t>POLICY</t>
+  </si>
+  <si>
+    <t>GROSS</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>PYMT</t>
+  </si>
+  <si>
+    <t>POLICY#</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>COMM.</t>
+  </si>
+  <si>
+    <t>PAID</t>
+  </si>
+  <si>
+    <t>INVOICE</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>STATUS</t>
   </si>
 </sst>
 </file>
@@ -350,12 +347,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="9" width="17.5"/>
-    <col customWidth="1" min="10" max="10" width="29.5"/>
-    <col customWidth="1" min="11" max="15" width="17.5"/>
-    <col customWidth="1" min="16" max="16" width="20.5"/>
-    <col customWidth="1" min="17" max="17" width="21.75"/>
-    <col customWidth="1" min="18" max="18" width="28.88"/>
+    <col customWidth="1" min="1" max="8" width="17.5"/>
+    <col customWidth="1" min="9" max="9" width="29.5"/>
+    <col customWidth="1" min="10" max="14" width="17.5"/>
+    <col customWidth="1" min="15" max="15" width="20.5"/>
+    <col customWidth="1" min="16" max="16" width="21.75"/>
+    <col customWidth="1" min="17" max="17" width="28.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -396,18 +393,17 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/resources/import/sold_policies_outstanding_report.xlsx
+++ b/resources/import/sold_policies_outstanding_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>POLICY</t>
   </si>
@@ -40,7 +40,13 @@
     <t>COMM.</t>
   </si>
   <si>
+    <t>COMM GROSS</t>
+  </si>
+  <si>
     <t>PAID</t>
+  </si>
+  <si>
+    <t>PAID GROSS</t>
   </si>
   <si>
     <t>INVOICE</t>
@@ -348,11 +354,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="8" width="17.5"/>
-    <col customWidth="1" min="9" max="9" width="29.5"/>
-    <col customWidth="1" min="10" max="14" width="17.5"/>
-    <col customWidth="1" min="15" max="15" width="20.5"/>
-    <col customWidth="1" min="16" max="16" width="21.75"/>
-    <col customWidth="1" min="17" max="17" width="28.88"/>
+    <col customWidth="1" min="9" max="10" width="29.5"/>
+    <col customWidth="1" min="11" max="16" width="17.5"/>
+    <col customWidth="1" min="17" max="17" width="20.5"/>
+    <col customWidth="1" min="18" max="18" width="21.75"/>
+    <col customWidth="1" min="19" max="19" width="28.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -393,17 +399,23 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="3"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/resources/import/sold_policies_outstanding_report.xlsx
+++ b/resources/import/sold_policies_outstanding_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>POLICY</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>PAID GROSS</t>
+  </si>
+  <si>
+    <t>Difference</t>
   </si>
   <si>
     <t>INVOICE</t>
@@ -355,10 +358,10 @@
   <cols>
     <col customWidth="1" min="1" max="8" width="17.5"/>
     <col customWidth="1" min="9" max="10" width="29.5"/>
-    <col customWidth="1" min="11" max="16" width="17.5"/>
-    <col customWidth="1" min="17" max="17" width="20.5"/>
-    <col customWidth="1" min="18" max="18" width="21.75"/>
-    <col customWidth="1" min="19" max="19" width="28.88"/>
+    <col customWidth="1" min="11" max="17" width="17.5"/>
+    <col customWidth="1" min="18" max="18" width="20.5"/>
+    <col customWidth="1" min="19" max="19" width="21.75"/>
+    <col customWidth="1" min="20" max="20" width="28.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -405,17 +408,20 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
-      <c r="V1" s="3"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
